--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,23 +964,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,14 +1006,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,11 +1058,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,26 +1136,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,26 +1232,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1212,37 +1264,43 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,11 +1442,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1545,7 +1632,7 @@
         <v>600</v>
       </c>
       <c r="F41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
@@ -1557,13 +1644,16 @@
         <v>700</v>
       </c>
       <c r="J41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1690,7 +1792,7 @@
         <v>600</v>
       </c>
       <c r="F46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
@@ -1702,13 +1804,16 @@
         <v>700</v>
       </c>
       <c r="J46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1922,7 +2048,7 @@
         <v>600</v>
       </c>
       <c r="F54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G54" s="3">
         <v>700</v>
@@ -1934,13 +2060,16 @@
         <v>700</v>
       </c>
       <c r="J54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,10 +2521,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2393,16 +2567,16 @@
         <v>-6400</v>
       </c>
       <c r="E72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-5500</v>
       </c>
       <c r="I72" s="3">
         <v>-5500</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2512,7 +2698,7 @@
         <v>600</v>
       </c>
       <c r="F76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G76" s="3">
         <v>700</v>
@@ -2524,13 +2710,16 @@
         <v>700</v>
       </c>
       <c r="J76" s="3">
+        <v>700</v>
+      </c>
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,62 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +751,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +990,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -974,17 +1000,17 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -997,8 +1023,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,17 +1035,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1029,8 +1058,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1061,11 +1094,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1075,8 +1108,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1178,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,20 +1190,20 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1213,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1283,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1244,20 +1295,20 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1267,8 +1318,11 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1276,31 +1330,34 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1445,11 +1514,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1459,8 +1528,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1468,31 +1540,34 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1598,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1532,68 +1610,74 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1635,7 +1721,7 @@
         <v>600</v>
       </c>
       <c r="G41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>700</v>
@@ -1647,13 +1733,16 @@
         <v>700</v>
       </c>
       <c r="K41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1878,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1896,7 @@
         <v>600</v>
       </c>
       <c r="G46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
@@ -1807,13 +1908,16 @@
         <v>700</v>
       </c>
       <c r="K46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2158,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2051,7 +2176,7 @@
         <v>600</v>
       </c>
       <c r="G54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
@@ -2063,13 +2188,16 @@
         <v>700</v>
       </c>
       <c r="K54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2258,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,8 +2293,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2192,8 +2328,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,8 +2363,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2538,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,10 +2691,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2728,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2570,16 +2743,16 @@
         <v>-6400</v>
       </c>
       <c r="F72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-5500</v>
       </c>
       <c r="J72" s="3">
         <v>-5500</v>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2868,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2701,7 +2886,7 @@
         <v>600</v>
       </c>
       <c r="G76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H76" s="3">
         <v>700</v>
@@ -2713,13 +2898,16 @@
         <v>700</v>
       </c>
       <c r="K76" s="3">
+        <v>700</v>
+      </c>
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2938,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2796,31 +2990,34 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3428,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1017,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1003,17 +1030,17 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1026,8 +1053,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,17 +1068,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1097,11 +1131,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1221,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1193,20 +1236,20 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1216,8 +1259,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1298,20 +1350,20 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1321,8 +1373,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1333,31 +1388,34 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1517,11 +1587,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1531,8 +1601,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1543,31 +1616,34 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1613,71 +1692,77 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,13 +1792,14 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
@@ -1724,7 +1811,7 @@
         <v>600</v>
       </c>
       <c r="H41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
@@ -1736,13 +1823,16 @@
         <v>700</v>
       </c>
       <c r="L41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1881,13 +1980,16 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
@@ -1899,7 +2001,7 @@
         <v>600</v>
       </c>
       <c r="H46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>700</v>
@@ -1911,13 +2013,16 @@
         <v>700</v>
       </c>
       <c r="L46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,13 +2284,16 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
@@ -2179,7 +2305,7 @@
         <v>600</v>
       </c>
       <c r="H54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
@@ -2191,13 +2317,16 @@
         <v>700</v>
       </c>
       <c r="L54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,8 +2430,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,10 +2862,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,13 +2902,16 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="E72" s="3">
         <v>-6400</v>
@@ -2746,16 +2920,16 @@
         <v>-6400</v>
       </c>
       <c r="G72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-5500</v>
       </c>
       <c r="K72" s="3">
         <v>-5500</v>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,13 +3054,16 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E76" s="3">
         <v>600</v>
@@ -2889,7 +3075,7 @@
         <v>600</v>
       </c>
       <c r="H76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I76" s="3">
         <v>700</v>
@@ -2901,13 +3087,16 @@
         <v>700</v>
       </c>
       <c r="L76" s="3">
+        <v>700</v>
+      </c>
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2993,31 +3188,34 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,74 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1070,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1045,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1056,8 +1110,14 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1083,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1094,8 +1154,14 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1134,22 +1202,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,13 +1304,19 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1239,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1248,22 +1334,28 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,13 +1436,19 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1353,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1362,27 +1466,33 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1391,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1400,22 +1510,28 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1590,27 +1730,33 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1619,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1628,22 +1774,28 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,13 +1832,19 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1695,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1704,65 +1862,77 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1965,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1802,10 +1976,10 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
@@ -1814,10 +1988,10 @@
         <v>600</v>
       </c>
       <c r="I41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>700</v>
@@ -1826,13 +2000,19 @@
         <v>700</v>
       </c>
       <c r="M41" s="3">
+        <v>700</v>
+      </c>
+      <c r="N41" s="3">
+        <v>700</v>
+      </c>
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1992,10 +2196,10 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
@@ -2004,10 +2208,10 @@
         <v>600</v>
       </c>
       <c r="I46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
@@ -2016,13 +2220,19 @@
         <v>700</v>
       </c>
       <c r="M46" s="3">
+        <v>700</v>
+      </c>
+      <c r="N46" s="3">
+        <v>700</v>
+      </c>
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2533,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2296,10 +2548,10 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G54" s="3">
         <v>600</v>
@@ -2308,10 +2560,10 @@
         <v>600</v>
       </c>
       <c r="I54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>700</v>
@@ -2320,13 +2572,19 @@
         <v>700</v>
       </c>
       <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,8 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,8 +2701,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,8 +2745,14 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,8 +2789,14 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,8 +3009,14 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2737,8 +3053,14 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,10 +3201,16 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,37 +3247,43 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
-        <v>-6400</v>
-      </c>
       <c r="F72" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="G72" s="3">
         <v>-6400</v>
       </c>
       <c r="H72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-5500</v>
       </c>
       <c r="M72" s="3">
         <v>-5500</v>
@@ -2943,8 +3291,14 @@
       <c r="N72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3423,14 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3066,10 +3438,10 @@
         <v>500</v>
       </c>
       <c r="E76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G76" s="3">
         <v>600</v>
@@ -3078,10 +3450,10 @@
         <v>600</v>
       </c>
       <c r="I76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K76" s="3">
         <v>700</v>
@@ -3090,13 +3462,19 @@
         <v>700</v>
       </c>
       <c r="M76" s="3">
+        <v>700</v>
+      </c>
+      <c r="N76" s="3">
+        <v>700</v>
+      </c>
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,56 +3511,68 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3191,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -3200,22 +3590,28 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1093,17 +1119,17 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1142,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1137,17 +1166,17 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1208,11 +1241,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,17 +1349,20 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1331,20 +1373,20 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,17 +1490,20 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1463,20 +1514,20 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1486,17 +1537,20 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1507,31 +1561,34 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1736,11 +1805,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1750,17 +1819,20 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1771,31 +1843,34 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,17 +1913,20 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -1859,80 +1937,86 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1982,7 +2068,7 @@
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
@@ -1994,7 +2080,7 @@
         <v>600</v>
       </c>
       <c r="K41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>700</v>
@@ -2006,13 +2092,16 @@
         <v>700</v>
       </c>
       <c r="O41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2202,7 +2303,7 @@
         <v>500</v>
       </c>
       <c r="G46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
@@ -2214,7 +2315,7 @@
         <v>600</v>
       </c>
       <c r="K46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>700</v>
@@ -2226,13 +2327,16 @@
         <v>700</v>
       </c>
       <c r="O46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2554,7 +2679,7 @@
         <v>500</v>
       </c>
       <c r="G54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
@@ -2566,7 +2691,7 @@
         <v>600</v>
       </c>
       <c r="K54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>700</v>
@@ -2578,13 +2703,16 @@
         <v>700</v>
       </c>
       <c r="O54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3169,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,10 +3374,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,13 +3435,13 @@
         <v>-7900</v>
       </c>
       <c r="E72" s="3">
-        <v>-6500</v>
+        <v>-7900</v>
       </c>
       <c r="F72" s="3">
         <v>-6500</v>
       </c>
       <c r="G72" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="H72" s="3">
         <v>-6400</v>
@@ -3277,16 +3450,16 @@
         <v>-6400</v>
       </c>
       <c r="J72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-5500</v>
       </c>
       <c r="N72" s="3">
         <v>-5500</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3611,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3444,7 +3629,7 @@
         <v>500</v>
       </c>
       <c r="G76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H76" s="3">
         <v>600</v>
@@ -3456,7 +3641,7 @@
         <v>600</v>
       </c>
       <c r="K76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L76" s="3">
         <v>700</v>
@@ -3468,13 +3653,16 @@
         <v>700</v>
       </c>
       <c r="O76" s="3">
+        <v>700</v>
+      </c>
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,66 +3705,72 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -3587,31 +3781,34 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1134,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1145,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1181,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,14 +1288,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1244,22 +1312,28 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,14 +1447,14 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1376,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1385,22 +1471,28 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,14 +1606,14 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1517,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1526,22 +1630,28 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,14 +1659,14 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1564,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1573,22 +1683,28 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,14 +1924,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1808,22 +1948,28 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,14 +1977,14 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1846,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1855,22 +2001,28 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,14 +2083,14 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1940,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1949,74 +2107,86 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2071,10 +2245,10 @@
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
@@ -2083,10 +2257,10 @@
         <v>600</v>
       </c>
       <c r="L41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N41" s="3">
         <v>700</v>
@@ -2095,13 +2269,19 @@
         <v>700</v>
       </c>
       <c r="P41" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>700</v>
+      </c>
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2306,10 +2510,10 @@
         <v>500</v>
       </c>
       <c r="H46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
@@ -2318,10 +2522,10 @@
         <v>600</v>
       </c>
       <c r="L46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
@@ -2330,13 +2534,19 @@
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2682,10 +2934,10 @@
         <v>500</v>
       </c>
       <c r="H54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
@@ -2694,10 +2946,10 @@
         <v>600</v>
       </c>
       <c r="L54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
@@ -2706,13 +2958,19 @@
         <v>700</v>
       </c>
       <c r="P54" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>700</v>
+      </c>
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,10 +3713,16 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,46 +3768,52 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6400</v>
       </c>
       <c r="J72" s="3">
         <v>-6400</v>
       </c>
       <c r="K72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-5500</v>
       </c>
       <c r="P72" s="3">
         <v>-5500</v>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3632,10 +4004,10 @@
         <v>500</v>
       </c>
       <c r="H76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J76" s="3">
         <v>600</v>
@@ -3644,10 +4016,10 @@
         <v>600</v>
       </c>
       <c r="L76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N76" s="3">
         <v>700</v>
@@ -3656,13 +4028,19 @@
         <v>700</v>
       </c>
       <c r="P76" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>700</v>
+      </c>
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,14 +4159,14 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3784,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3793,22 +4183,28 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1182,17 +1209,17 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,17 +1265,17 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,11 +1328,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1318,11 +1352,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1468,20 +1511,20 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1612,11 +1664,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1627,20 +1679,20 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,11 +1720,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1680,31 +1735,34 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,11 +2000,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1954,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1983,11 +2056,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1998,31 +2071,34 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2089,11 +2168,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2104,89 +2183,95 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2251,7 +2338,7 @@
         <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
@@ -2263,7 +2350,7 @@
         <v>600</v>
       </c>
       <c r="N41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>700</v>
@@ -2275,13 +2362,16 @@
         <v>700</v>
       </c>
       <c r="R41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2516,7 +2618,7 @@
         <v>500</v>
       </c>
       <c r="J46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
@@ -2528,7 +2630,7 @@
         <v>600</v>
       </c>
       <c r="N46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
@@ -2540,13 +2642,16 @@
         <v>700</v>
       </c>
       <c r="R46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2940,7 +3066,7 @@
         <v>500</v>
       </c>
       <c r="J54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
@@ -2952,7 +3078,7 @@
         <v>600</v>
       </c>
       <c r="N54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O54" s="3">
         <v>700</v>
@@ -2964,13 +3090,16 @@
         <v>700</v>
       </c>
       <c r="R54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,10 +3887,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3786,19 +3960,19 @@
         <v>-8000</v>
       </c>
       <c r="F72" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="G72" s="3">
         <v>-7900</v>
       </c>
       <c r="H72" s="3">
-        <v>-6500</v>
+        <v>-7900</v>
       </c>
       <c r="I72" s="3">
         <v>-6500</v>
       </c>
       <c r="J72" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="K72" s="3">
         <v>-6400</v>
@@ -3807,16 +3981,16 @@
         <v>-6400</v>
       </c>
       <c r="M72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-5500</v>
       </c>
       <c r="Q72" s="3">
         <v>-5500</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4010,7 +4196,7 @@
         <v>500</v>
       </c>
       <c r="J76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K76" s="3">
         <v>600</v>
@@ -4022,7 +4208,7 @@
         <v>600</v>
       </c>
       <c r="N76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O76" s="3">
         <v>700</v>
@@ -4034,13 +4220,16 @@
         <v>700</v>
       </c>
       <c r="R76" s="3">
+        <v>700</v>
+      </c>
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4165,11 +4360,11 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4180,31 +4375,34 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1224,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1280,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1331,14 +1398,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1355,22 +1422,28 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,13 +1560,19 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1499,14 +1584,14 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1514,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1523,22 +1608,28 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1746,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1667,14 +1770,14 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1682,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1691,27 +1794,33 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1723,14 +1832,14 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1738,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1747,22 +1856,28 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2003,14 +2142,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2027,27 +2166,33 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2059,14 +2204,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2074,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2083,22 +2228,28 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2304,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2171,14 +2328,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2186,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2195,83 +2352,95 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,16 +2485,18 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
@@ -2341,10 +2514,10 @@
         <v>500</v>
       </c>
       <c r="K41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>600</v>
@@ -2353,10 +2526,10 @@
         <v>600</v>
       </c>
       <c r="O41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
@@ -2365,13 +2538,19 @@
         <v>700</v>
       </c>
       <c r="S41" s="3">
+        <v>700</v>
+      </c>
+      <c r="T41" s="3">
+        <v>700</v>
+      </c>
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,16 +2791,22 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
@@ -2621,10 +2824,10 @@
         <v>500</v>
       </c>
       <c r="K46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
@@ -2633,10 +2836,10 @@
         <v>600</v>
       </c>
       <c r="O46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q46" s="3">
         <v>700</v>
@@ -2645,13 +2848,19 @@
         <v>700</v>
       </c>
       <c r="S46" s="3">
+        <v>700</v>
+      </c>
+      <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,16 +3287,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>500</v>
@@ -3069,10 +3320,10 @@
         <v>500</v>
       </c>
       <c r="K54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
@@ -3081,10 +3332,10 @@
         <v>600</v>
       </c>
       <c r="O54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q54" s="3">
         <v>700</v>
@@ -3093,13 +3344,19 @@
         <v>700</v>
       </c>
       <c r="S54" s="3">
+        <v>700</v>
+      </c>
+      <c r="T54" s="3">
+        <v>700</v>
+      </c>
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3583,14 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3955,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,10 +4225,16 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4289,19 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8000</v>
+        <v>-8600</v>
       </c>
       <c r="E72" s="3">
         <v>-8000</v>
@@ -3963,40 +4310,40 @@
         <v>-8000</v>
       </c>
       <c r="G72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-6400</v>
       </c>
       <c r="M72" s="3">
         <v>-6400</v>
       </c>
       <c r="N72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-5500</v>
       </c>
       <c r="S72" s="3">
         <v>-5500</v>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4537,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E76" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F76" s="3">
         <v>500</v>
@@ -4199,10 +4570,10 @@
         <v>500</v>
       </c>
       <c r="K76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M76" s="3">
         <v>600</v>
@@ -4211,10 +4582,10 @@
         <v>600</v>
       </c>
       <c r="O76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q76" s="3">
         <v>700</v>
@@ -4223,13 +4594,19 @@
         <v>700</v>
       </c>
       <c r="S76" s="3">
+        <v>700</v>
+      </c>
+      <c r="T76" s="3">
+        <v>700</v>
+      </c>
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4661,86 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4363,14 +4752,14 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4378,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -4387,22 +4776,28 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,17 +1298,17 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,17 +1363,17 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1404,11 +1438,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1428,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,17 +1606,20 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1590,11 +1633,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1605,20 +1648,20 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,17 +1801,20 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1776,11 +1828,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1791,20 +1843,20 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1814,17 +1866,20 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1838,11 +1893,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1853,31 +1908,34 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2148,11 +2218,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2172,11 +2242,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2186,17 +2256,20 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -2210,11 +2283,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2225,31 +2298,34 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,17 +2386,20 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -2334,11 +2413,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2349,98 +2428,104 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2499,7 +2586,7 @@
         <v>400</v>
       </c>
       <c r="F41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
@@ -2520,7 +2607,7 @@
         <v>500</v>
       </c>
       <c r="M41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
@@ -2532,7 +2619,7 @@
         <v>600</v>
       </c>
       <c r="Q41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>700</v>
@@ -2544,13 +2631,16 @@
         <v>700</v>
       </c>
       <c r="U41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2809,7 +2911,7 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
@@ -2830,7 +2932,7 @@
         <v>500</v>
       </c>
       <c r="M46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>600</v>
@@ -2842,7 +2944,7 @@
         <v>600</v>
       </c>
       <c r="Q46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>700</v>
@@ -2854,13 +2956,16 @@
         <v>700</v>
       </c>
       <c r="U46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3305,7 +3431,7 @@
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>500</v>
@@ -3326,7 +3452,7 @@
         <v>500</v>
       </c>
       <c r="M54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
@@ -3338,7 +3464,7 @@
         <v>600</v>
       </c>
       <c r="Q54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R54" s="3">
         <v>700</v>
@@ -3350,13 +3476,16 @@
         <v>700</v>
       </c>
       <c r="U54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,10 +4399,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,16 +4466,19 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-8000</v>
       </c>
       <c r="F72" s="3">
         <v>-8000</v>
@@ -4316,19 +4490,19 @@
         <v>-8000</v>
       </c>
       <c r="I72" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="J72" s="3">
         <v>-7900</v>
       </c>
       <c r="K72" s="3">
-        <v>-6500</v>
+        <v>-7900</v>
       </c>
       <c r="L72" s="3">
         <v>-6500</v>
       </c>
       <c r="M72" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="N72" s="3">
         <v>-6400</v>
@@ -4337,16 +4511,16 @@
         <v>-6400</v>
       </c>
       <c r="P72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-5500</v>
       </c>
       <c r="T72" s="3">
         <v>-5500</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4555,7 +4741,7 @@
         <v>400</v>
       </c>
       <c r="F76" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G76" s="3">
         <v>500</v>
@@ -4576,7 +4762,7 @@
         <v>500</v>
       </c>
       <c r="M76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>600</v>
@@ -4588,7 +4774,7 @@
         <v>600</v>
       </c>
       <c r="Q76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R76" s="3">
         <v>700</v>
@@ -4600,13 +4786,16 @@
         <v>700</v>
       </c>
       <c r="U76" s="3">
+        <v>700</v>
+      </c>
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,84 +4856,90 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -4758,11 +4953,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4773,31 +4968,34 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WHLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>WHLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1301,17 +1328,17 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,17 +1396,17 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,11 +1457,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1441,11 +1475,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1465,11 +1499,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1636,11 +1679,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1651,20 +1694,20 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,11 +1865,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1831,11 +1883,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1846,20 +1898,20 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,11 +1933,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1896,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1911,31 +1966,34 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,11 +2273,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2221,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2245,11 +2315,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,11 +2341,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2286,11 +2359,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2301,31 +2374,34 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,11 +2477,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2416,11 +2495,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2431,101 +2510,107 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2589,7 +2676,7 @@
         <v>400</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
@@ -2610,7 +2697,7 @@
         <v>500</v>
       </c>
       <c r="N41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
@@ -2622,7 +2709,7 @@
         <v>600</v>
       </c>
       <c r="R41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S41" s="3">
         <v>700</v>
@@ -2634,13 +2721,16 @@
         <v>700</v>
       </c>
       <c r="V41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W41" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2914,7 +3016,7 @@
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
@@ -2935,7 +3037,7 @@
         <v>500</v>
       </c>
       <c r="N46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O46" s="3">
         <v>600</v>
@@ -2947,7 +3049,7 @@
         <v>600</v>
       </c>
       <c r="R46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S46" s="3">
         <v>700</v>
@@ -2959,13 +3061,16 @@
         <v>700</v>
       </c>
       <c r="V46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W46" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3434,7 +3560,7 @@
         <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
@@ -3455,7 +3581,7 @@
         <v>500</v>
       </c>
       <c r="N54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
@@ -3467,7 +3593,7 @@
         <v>600</v>
       </c>
       <c r="R54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S54" s="3">
         <v>700</v>
@@ -3479,13 +3605,16 @@
         <v>700</v>
       </c>
       <c r="V54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W54" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,10 +4570,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,10 +4652,10 @@
         <v>-8700</v>
       </c>
       <c r="E72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-8000</v>
       </c>
       <c r="G72" s="3">
         <v>-8000</v>
@@ -4493,19 +4667,19 @@
         <v>-8000</v>
       </c>
       <c r="J72" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="K72" s="3">
         <v>-7900</v>
       </c>
       <c r="L72" s="3">
-        <v>-6500</v>
+        <v>-7900</v>
       </c>
       <c r="M72" s="3">
         <v>-6500</v>
       </c>
       <c r="N72" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="O72" s="3">
         <v>-6400</v>
@@ -4514,16 +4688,16 @@
         <v>-6400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-5500</v>
       </c>
       <c r="U72" s="3">
         <v>-5500</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-5500</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4744,7 +4930,7 @@
         <v>400</v>
       </c>
       <c r="G76" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H76" s="3">
         <v>500</v>
@@ -4765,7 +4951,7 @@
         <v>500</v>
       </c>
       <c r="N76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O76" s="3">
         <v>600</v>
@@ -4777,7 +4963,7 @@
         <v>600</v>
       </c>
       <c r="R76" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S76" s="3">
         <v>700</v>
@@ -4789,13 +4975,16 @@
         <v>700</v>
       </c>
       <c r="V76" s="3">
+        <v>700</v>
+      </c>
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,11 +5133,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -4956,11 +5151,11 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4971,31 +5166,34 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
